--- a/biology/Médecine/Muscle_trapèze_(anatomie_humaine)/Muscle_trapèze_(anatomie_humaine).xlsx
+++ b/biology/Médecine/Muscle_trapèze_(anatomie_humaine)/Muscle_trapèze_(anatomie_humaine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_trap%C3%A8ze_(anatomie_humaine)</t>
+          <t>Muscle_trapèze_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle trapèze est un muscle de la loge postérieure de l'épaule, de la nuque, et du tronc, appartenant aux muscles de la ceinture du membre thoracique. Il est très vaste et occupe toute la région supérieure du dos à la manière d'un losange, d'où son nom. On le divise habituellement en trois faisceaux : supérieur, moyen et inférieur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_trap%C3%A8ze_(anatomie_humaine)</t>
+          <t>Muscle_trapèze_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,58 +523,199 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le muscle trapèze appartient à la nuque, au tronc et à l'épaule, au niveau de la ceinture thoracique. Le muscle trapèze a une forme de losange et est constitué de trois faisceaux. Son faisceau supérieur s'insère dans la clavicule et ses faisceaux moyen et inférieur dans l'omoplate. Il entre en action pour baisser ou hausser les épaules, tourner, incliner et étendre la tête en arrière ou sur les côtés, et pour ramener l'épaule en arrière. Le muscle trapèze est innervé par le nerf accessoire et le nerf du trapèze (racines cervicales : C3C4, responsables de la perception de la douleur et la proprioception.)
-Origines
-Il a pour origine :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle trapèze appartient à la nuque, au tronc et à l'épaule, au niveau de la ceinture thoracique. Le muscle trapèze a une forme de losange et est constitué de trois faisceaux. Son faisceau supérieur s'insère dans la clavicule et ses faisceaux moyen et inférieur dans l'omoplate. Il entre en action pour baisser ou hausser les épaules, tourner, incliner et étendre la tête en arrière ou sur les côtés, et pour ramener l'épaule en arrière. Le muscle trapèze est innervé par le nerf accessoire et le nerf du trapèze (racines cervicales : C3C4, responsables de la perception de la douleur et la proprioception.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Muscle_trapèze_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_trap%C3%A8ze_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il a pour origine :
 le faisceau supérieur
 le 1/3 interne de la ligne nuchale supérieure, juste après l'insertion du muscle sterno-cléido-mastoïdien, et jusqu'à la protubérance occipitale externe,
 le long du ligament nuchal, reliant les processus épineux des vertèbres cervicales de C1 à C7.
 le faisceau moyen a pour origine le triangle aponévrotique des épineuses ainsi que ligament inter-épineux de la septième vertèbre cervicale (C7, C comme Cervicale) à la quatrième vertèbre thoracique (Th4, Th comme Thoracique).
-le faisceau inférieur a pour origine les processus épineux et les ligaments inter-épineux de la quatrième à la dixième vertèbre thoracique (Th4 à Th10). On note des variations anatomique jusqu'à la douzième vertèbre thoracique (Th12).
-Trajet
-Le faisceau supérieur est oblique en bas et en dehors.
+le faisceau inférieur a pour origine les processus épineux et les ligaments inter-épineux de la quatrième à la dixième vertèbre thoracique (Th4 à Th10). On note des variations anatomique jusqu'à la douzième vertèbre thoracique (Th12).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muscle_trapèze_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_trap%C3%A8ze_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le faisceau supérieur est oblique en bas et en dehors.
 Le faisceau moyen est grossièrement horizontal.
 Le faisceau inférieur est oblique en haut et en dehors.
-Vue latérale.Vue antérieure.Vue postérieure.Animation.Muscle trapèze.Faisceau supérieur.Faisceau moyen.Faisceau inférieur.
-Terminaisons
-Ils s'insèrent pour :
+Vue latérale.Vue antérieure.Vue postérieure.Animation.Muscle trapèze.Faisceau supérieur.Faisceau moyen.Faisceau inférieur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_trapèze_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_trap%C3%A8ze_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Terminaisons</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ils s'insèrent pour :
 le faisceau supérieur, sur le bord postérieur et légèrement sur la face supérieure du 1/3 latéral de la clavicule.
 le faisceau moyen, sur le bord médial de l'acromion et la lèvre supérieure du bord posterieur de l'épine de la Scapula.
-le faisceau inférieur, par une aponévrose qui s'insère sur le bord postérieur de l'épine de la scapula et sur le tubercule du trapèze à son bord postérieur.
-Innervation
-Il est innervé :
+le faisceau inférieur, par une aponévrose qui s'insère sur le bord postérieur de l'épine de la scapula et sur le tubercule du trapèze à son bord postérieur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_trapèze_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_trap%C3%A8ze_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Il est innervé :
 par le nerf accessoire (XIe Paire Crânienne) pour le faisceau supérieur.
 par le nerf du trapèze (Racines C3-C4) pour les faisceaux moyen et inférieur</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Muscle_trap%C3%A8ze_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_trapèze_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Muscle_trap%C3%A8ze_(anatomie_humaine)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Son faisceau supérieur permet de
 hausser les épaules (uni/bilatéralement),
@@ -574,37 +727,39 @@
 de faire une sonnette externe de la scapula.
 Son faisceau inférieur permet :
 d'abaisser les épaules
-de faire basculer en dehors l'angle inférieur de la scapula (sonnette latérale)[2].
-Les trois faisceaux du trapèze ont également un rôle stabilisateur de la scapula[3].
+de faire basculer en dehors l'angle inférieur de la scapula (sonnette latérale).
+Les trois faisceaux du trapèze ont également un rôle stabilisateur de la scapula.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Muscle_trap%C3%A8ze_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscle_trapèze_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Muscle_trap%C3%A8ze_(anatomie_humaine)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le muscle est en rapport:
 en arrière, avec la peau (à laquelle il est uni par un tissu cellulaire serré);
@@ -612,35 +767,37 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Muscle_trap%C3%A8ze_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muscle_trapèze_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Muscle_trap%C3%A8ze_(anatomie_humaine)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Culture physique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est possible de développer le volume, ou la force, des trapèzes et des épaules à l'aide d'exercices de musculation, dont un exemple peut être les « Shrugs » (haussement des épaules en portant des charges dans les mains).
 La plupart des exercices à poids de corps qui font travailler les bras (pompes, tractions, burpees, etc.) font également travailler les trapèzes.
-Le trapèze intervient à la fois comme muscle stabilisateur et synergique dans l'exercice du soulevé de terre[4].
+Le trapèze intervient à la fois comme muscle stabilisateur et synergique dans l'exercice du soulevé de terre.
 </t>
         </is>
       </c>
